--- a/Data/modified_parameters_scenario_2/Energy_and_Carbon_TEK_and_Renovation.xlsx
+++ b/Data/modified_parameters_scenario_2/Energy_and_Carbon_TEK_and_Renovation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/Python/TEP4290_project/data/modified_parameters_scenario_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="59" documentId="8_{422AED55-1AA5-4DB3-97A7-43AD168483C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC81FE6-4197-47B5-A95A-62B002B1D092}"/>
